--- a/cleaned/lic_mutual_fund_portfolio.xlsx
+++ b/cleaned/lic_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,42 +511,45 @@
           <t>IN2220220205</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4000000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4270.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>0.072132</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4000000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4270.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2315</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -548,42 +566,45 @@
           <t>IN0020240019</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3700000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3871.5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>0.068559</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3700000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3871.5</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2098</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -600,42 +621,45 @@
           <t>IN1520220055</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2500000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2607.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.072118</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2607.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1413</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -652,42 +676,45 @@
           <t>IN2220220114</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1584.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>0.072407</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1500000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1584.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -704,42 +731,45 @@
           <t>IN0020230085</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1250000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1325.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>0.068666</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1250000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1325.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -756,42 +786,45 @@
           <t>IN2220230139</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1250000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1322.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>0.072132</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1250000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1322.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -808,42 +841,45 @@
           <t>INE040A08807</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1068.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>0.074983</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1068.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0579</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -860,42 +896,45 @@
           <t>INE936D07190</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1018.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>0.07455</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1018.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -912,42 +951,45 @@
           <t>IN0020240126</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>700000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>719.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>0.068065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>700000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>719.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.039</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -964,42 +1006,45 @@
           <t>IN2220220072</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SOVEREIGN</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>316.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.072286</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>300000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>316.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments       </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
@@ -1033,17 +1078,20 @@
           <t>0.0027</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Investment in Mutual fund       </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Investment in Mutual fund  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>LDBOND</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>LIC Mutual Fund</t>
         </is>
